--- a/StructureDefinition-ext-R5-Specimen.feature.xlsx
+++ b/StructureDefinition-ext-R5-Specimen.feature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Specimen.feature` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Specimen.feature` is mapped to FHIR R4 structure `Specimen`, but has no target element specified.</t>
+Element `Specimen.feature` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Specimen</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `Specimen.feature.type` is part of an existing definition because parent element `Specimen.feature` requires a cross-version extension.
-Element `Specimen.feature.type` is mapped to FHIR R4 structure `Specimen`, but has no target element specified.</t>
+Element `Specimen.feature.type` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -434,7 +434,7 @@
   </si>
   <si>
     <t>Element `Specimen.feature.description` is part of an existing definition because parent element `Specimen.feature` requires a cross-version extension.
-Element `Specimen.feature.description` is mapped to FHIR R4 structure `Specimen`, but has no target element specified.</t>
+Element `Specimen.feature.description` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -796,7 +796,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="121.61328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="128.08203125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Specimen.feature.xlsx
+++ b/StructureDefinition-ext-R5-Specimen.feature.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Specimen.feature` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Specimen.feature` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+Element `Specimen.feature` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `Specimen.feature.type` is part of an existing definition because parent element `Specimen.feature` requires a cross-version extension.
-Element `Specimen.feature.type` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+Element `Specimen.feature.type` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -434,7 +437,7 @@
   </si>
   <si>
     <t>Element `Specimen.feature.description` is part of an existing definition because parent element `Specimen.feature` requires a cross-version extension.
-Element `Specimen.feature.description` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+Element `Specimen.feature.description` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -444,6 +447,9 @@
   </si>
   <si>
     <t>Extension.extension:description.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature.description</t>
   </si>
   <si>
     <t>Extension.extension:description.value[x]</t>
@@ -796,7 +802,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="128.08203125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="122.09765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1602,7 +1608,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1644,7 +1650,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1659,15 +1665,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1690,7 +1696,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1723,13 +1729,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1747,7 +1753,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1759,21 +1765,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1798,14 +1804,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1977,7 +1983,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2125,7 +2131,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2167,7 +2173,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2182,15 +2188,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2216,10 +2222,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2270,7 +2276,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2282,18 +2288,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2375,7 +2381,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2390,15 +2396,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2421,13 +2427,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2478,7 +2484,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2490,10 +2496,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Specimen.feature.xlsx
+++ b/StructureDefinition-ext-R5-Specimen.feature.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -406,15 +406,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>SNOMED CT Body site concepts</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-body-site-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -812,8 +803,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="26.1875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.8828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1729,31 +1720,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1765,7 +1756,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -1773,13 +1764,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1804,14 +1795,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1880,7 +1871,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1983,7 +1974,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2088,7 +2079,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2131,7 +2122,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2193,7 +2184,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2222,10 +2213,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2276,7 +2267,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2288,7 +2279,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2401,10 +2392,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2427,13 +2418,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2484,7 +2475,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2496,7 +2487,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>121</v>

--- a/StructureDefinition-ext-R5-Specimen.feature.xlsx
+++ b/StructureDefinition-ext-R5-Specimen.feature.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>The landmark or feature being highlighted.</t>
   </si>
   <si>
-    <t>Element `Specimen.feature.type` is part of an existing definition because parent element `Specimen.feature` requires a cross-version extension.
-Element `Specimen.feature.type` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+    <t>Element `Specimen.feature.type` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -427,8 +423,7 @@
     <t>Description of the feature of the specimen.</t>
   </si>
   <si>
-    <t>Element `Specimen.feature.description` is part of an existing definition because parent element `Specimen.feature` requires a cross-version extension.
-Element `Specimen.feature.description` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+    <t>Element `Specimen.feature.description` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -438,9 +433,6 @@
   </si>
   <si>
     <t>Extension.extension:description.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature.description</t>
   </si>
   <si>
     <t>Extension.extension:description.value[x]</t>
@@ -1599,72 +1591,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1687,7 +1679,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1744,7 +1736,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1756,21 +1748,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1795,14 +1787,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1871,7 +1863,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1974,7 +1966,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2079,7 +2071,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2122,7 +2114,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2164,30 +2156,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2213,10 +2205,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2267,7 +2259,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2279,18 +2271,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2372,30 +2364,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2418,13 +2410,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2475,7 +2467,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2487,10 +2479,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
